--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epmco-my.sharepoint.com/personal/alejandro_a_lopez_edeq_com_co/Documents/Python/Solicitudes mtto/Actas de satisfacción/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epmco-my.sharepoint.com/personal/alejandro_a_lopez_edeq_com_co/Documents/Python/Solicitudes mtto/Actas_forestales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_AD4D2F04E46CFB4ACB3E2047B5D2DEC8693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE9B5B6A-A01F-45A0-B194-8AB33C3541EE}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4D2F04E46CFB4ACB3E2047B5D2DEC8693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BE6916-29BD-42C6-9D43-DFF8989408C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Calidad</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Juan Pérez</t>
   </si>
@@ -72,9 +63,6 @@
     <t>Cali</t>
   </si>
   <si>
-    <t>Cedula</t>
-  </si>
-  <si>
     <t>Autorizacion</t>
   </si>
   <si>
@@ -97,6 +85,90 @@
   </si>
   <si>
     <t>A31495EF-0E88-439C-931C-140F0AE83240_21-02-2025.jpg</t>
+  </si>
+  <si>
+    <t>BRETANA</t>
+  </si>
+  <si>
+    <t>GLORIETA</t>
+  </si>
+  <si>
+    <t>CALARCS</t>
+  </si>
+  <si>
+    <t>4.534873</t>
+  </si>
+  <si>
+    <t>-75.669659</t>
+  </si>
+  <si>
+    <t>4.538400291716</t>
+  </si>
+  <si>
+    <t>-75.654599319983</t>
+  </si>
+  <si>
+    <t>4.548547004605</t>
+  </si>
+  <si>
+    <t>-75.674705996958</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>VEREDA</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>CALIDAD</t>
+  </si>
+  <si>
+    <t>CEDULA</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>LONGITUD</t>
+  </si>
+  <si>
+    <t>LATITUD</t>
+  </si>
+  <si>
+    <t>RETIROS</t>
+  </si>
+  <si>
+    <t>PODAS</t>
+  </si>
+  <si>
+    <t>GUADUAS</t>
+  </si>
+  <si>
+    <t>ROCERIA</t>
+  </si>
+  <si>
+    <t>COMENTARIO_EDEQ</t>
+  </si>
+  <si>
+    <t>COMENTARIO_USUARIO</t>
+  </si>
+  <si>
+    <t>Esta si es</t>
+  </si>
+  <si>
+    <t>Prueba 2, forestal multiple</t>
+  </si>
+  <si>
+    <t>Prueba 1 guadual</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -428,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="E1:F4"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,87 +512,219 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="54.140625" customWidth="1"/>
+    <col min="5" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="17" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>52636</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>21</v>
       </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>5230</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4">
+        <v>5235</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>110</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epmco-my.sharepoint.com/personal/alejandro_a_lopez_edeq_com_co/Documents/Python/Solicitudes mtto/Actas_forestales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="11_AD4D2F04E46CFB4ACB3E2047B5D2DEC8693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BE6916-29BD-42C6-9D43-DFF8989408C8}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="11_AD4D2F04E46CFB4ACB3E2047B5D2DEC8693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE993DD8-FE0D-4693-9A96-B138AB95A880}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
   <si>
     <t>Juan Pérez</t>
   </si>
@@ -169,13 +180,64 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>Evento_SP7</t>
+  </si>
+  <si>
+    <t>5250001235</t>
+  </si>
+  <si>
+    <t>Fecha_acci</t>
+  </si>
+  <si>
+    <t>disposicio</t>
+  </si>
+  <si>
+    <t>A cargo de EDEQ</t>
+  </si>
+  <si>
+    <t>En el sitio</t>
+  </si>
+  <si>
+    <t>LIDER</t>
+  </si>
+  <si>
+    <t>ARLINSON ARBELAEZ BERMUDEZ</t>
+  </si>
+  <si>
+    <t>CARLOS ARLES BERNAL</t>
+  </si>
+  <si>
+    <t>DARWIN ALEXIS SANCHEZ</t>
+  </si>
+  <si>
+    <t>EDDUIN OJEDA LATORRE</t>
+  </si>
+  <si>
+    <t>EDISSON FERNEY CARDENAS</t>
+  </si>
+  <si>
+    <t>FREDDY ALONSO GONZALEZ</t>
+  </si>
+  <si>
+    <t>GABRIEL ADOLFO VERGARA BERMUDEZ</t>
+  </si>
+  <si>
+    <t>GEINNER CARDENAS</t>
+  </si>
+  <si>
+    <t>GERARDO RUBIANO</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO GUAPACHA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +249,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +288,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="K3" sqref="K2:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,16 +583,16 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="17" width="54.140625" customWidth="1"/>
+    <col min="5" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="21" width="54.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -550,31 +621,43 @@
         <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,32 +685,41 @@
       <c r="I2">
         <v>52636</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="K2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -652,32 +744,41 @@
       <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="I3">
-        <v>5230</v>
-      </c>
-      <c r="J3">
+      <c r="J3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>30</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
         <v>45</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -705,26 +806,457 @@
       <c r="I4">
         <v>5235</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
+      <c r="K4" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>110</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>46</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T4" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>52636</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>5235</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>110</v>
+      </c>
+      <c r="O7">
+        <v>20</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>52636</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>5235</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>110</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>52636</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="4">
+        <v>45709</v>
+      </c>
+      <c r="T11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
